--- a/Theoretical Abstraction Experimentation.xlsx
+++ b/Theoretical Abstraction Experimentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjang\Documents\GitHub\CAI-Analysis-Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9945CC-9DBA-4932-8873-0DC5BF65419D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C323940A-74C2-4DD3-9B49-454CACAB27BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3168" yWindow="1596" windowWidth="16584" windowHeight="9900" xr2:uid="{9D324013-50DF-4504-A4F6-C7F3D8A8EACE}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{9D324013-50DF-4504-A4F6-C7F3D8A8EACE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
   <si>
     <t>General</t>
   </si>
@@ -90,11 +90,17 @@
   <si>
     <t>A_eT</t>
   </si>
+  <si>
+    <t>FW~A*T*D</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -261,6 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4325,8 +4332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFAB148A-282E-4366-81B9-F3EAEFF98F9F}">
   <dimension ref="A1:AD81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41:K56"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7119,13 +7126,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B5C03E-9D85-4795-9793-0B6977F78CA5}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C39" sqref="A24:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="14" t="s">
@@ -7552,6 +7563,182 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="15">
+        <v>0.92904365992758797</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.93540000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>242</v>
+      </c>
+      <c r="B26" s="15">
+        <v>0.97364031903795401</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>246</v>
+      </c>
+      <c r="B27" s="15">
+        <v>0.92596563801816001</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.92259999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>319</v>
+      </c>
+      <c r="B28" s="15">
+        <v>0.66459949849718702</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>325</v>
+      </c>
+      <c r="B29" s="15">
+        <v>0.936573186957399</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.94020000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>326</v>
+      </c>
+      <c r="B30" s="15">
+        <v>0.98087163544903599</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.98029999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>390</v>
+      </c>
+      <c r="B31" s="15">
+        <v>0.78571676192873197</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.91920000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>572</v>
+      </c>
+      <c r="B32" s="15">
+        <v>0.88178203530938704</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.88060000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>580</v>
+      </c>
+      <c r="B33" s="15">
+        <v>0.86475331925616505</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0.85050000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>582</v>
+      </c>
+      <c r="B34" s="15">
+        <v>0.87063357836448896</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0.89170000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>584</v>
+      </c>
+      <c r="B35" s="15">
+        <v>0.97009586366670197</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0.97629999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>585</v>
+      </c>
+      <c r="B36" s="15">
+        <v>0.76791663560566503</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0.87839999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>839</v>
+      </c>
+      <c r="B37" s="15">
+        <v>0.841248006637629</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0.92620000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>845</v>
+      </c>
+      <c r="B38" s="15">
+        <v>0.96250989754209604</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0.96679999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>854</v>
+      </c>
+      <c r="B39" s="15">
+        <v>0.58115650536542596</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0.76910000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -7560,6 +7747,42 @@
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:B17">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C17">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.5"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D17">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -7571,7 +7794,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
+  <conditionalFormatting sqref="E3:E17">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -7583,7 +7806,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C17">
+  <conditionalFormatting sqref="F3:F17">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -7595,7 +7818,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D17">
+  <conditionalFormatting sqref="G3:G17">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -7607,8 +7830,48 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E17">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="I3">
+    <cfRule type="expression" dxfId="7" priority="12">
+      <formula>E3&gt;B3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I17">
+    <cfRule type="expression" dxfId="6" priority="11">
+      <formula>E4&gt;B4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J17">
+    <cfRule type="expression" dxfId="5" priority="10">
+      <formula>F3&gt;C3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K17">
+    <cfRule type="expression" dxfId="4" priority="9">
+      <formula>G3&gt;D3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3">
+    <cfRule type="expression" dxfId="3" priority="8">
+      <formula>ABS(E3-B3)&lt;0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4:M17">
+    <cfRule type="expression" dxfId="2" priority="7">
+      <formula>ABS(E4-B4)&lt;0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N17">
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>ABS(F3-C3)&lt;0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O17">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>ABS(G3-D3)&lt;0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H17">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.5"/>
@@ -7619,8 +7882,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F17">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="B26:B39">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.5"/>
@@ -7631,8 +7894,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G17">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="B25">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.5"/>
@@ -7643,47 +7906,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="7" priority="9">
-      <formula>E3&gt;B3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I17">
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>E4&gt;B4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J17">
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>F3&gt;C3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K17">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>G3&gt;D3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>ABS(E3-B3)&lt;0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M17">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>ABS(E4-B4)&lt;0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N17">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>ABS(F3-C3)&lt;0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O17">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>ABS(G3-D3)&lt;0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H17">
+  <conditionalFormatting sqref="C25:C39">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
